--- a/Module2Demos.xlsx
+++ b/Module2Demos.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\videofilesjune17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferryto\Documents\GitHub\DAT222x\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="6090" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="6090" tabRatio="699" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Probability Intro" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="374">
   <si>
     <t>Introduction to Probability</t>
   </si>
@@ -1177,12 +1177,54 @@
   </si>
   <si>
     <t xml:space="preserve"> P(F)*P(H|F)</t>
+  </si>
+  <si>
+    <t>A in op</t>
+  </si>
+  <si>
+    <t>!A in op</t>
+  </si>
+  <si>
+    <t>A in stats</t>
+  </si>
+  <si>
+    <t>!A in stats</t>
+  </si>
+  <si>
+    <t>At least 1 A</t>
+  </si>
+  <si>
+    <t>(0.85-0.2)</t>
+  </si>
+  <si>
+    <t>No A</t>
+  </si>
+  <si>
+    <t>1- At least 1A</t>
+  </si>
+  <si>
+    <t>P(face)</t>
+  </si>
+  <si>
+    <t>12/52</t>
+  </si>
+  <si>
+    <t>P(red)</t>
+  </si>
+  <si>
+    <t>26/52</t>
+  </si>
+  <si>
+    <t>P(red|face)</t>
+  </si>
+  <si>
+    <t>p(red)*p(face|red) / p(face)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -1512,7 +1554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1610,6 +1652,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1889,7 +1932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L44"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
@@ -2281,7 +2324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -2384,11 +2427,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:J14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2511,7 +2554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -2705,11 +2748,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2966,11 +3009,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B2:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3173,6 +3216,12 @@
       <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C17" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>363</v>
+      </c>
       <c r="H17" s="21" t="s">
         <v>288</v>
       </c>
@@ -3183,6 +3232,15 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B18" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.4</v>
+      </c>
       <c r="H18" s="21" t="s">
         <v>289</v>
       </c>
@@ -3190,11 +3248,34 @@
       <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B19" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.45</v>
+      </c>
       <c r="H19" s="21" t="s">
         <v>354</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B20" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="79" t="s">
@@ -3394,6 +3475,10 @@
       <c r="K34" s="76"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B36" s="8">
+        <f>9/12*8/11*7/10</f>
+        <v>0.38181818181818178</v>
+      </c>
       <c r="G36" s="21" t="s">
         <v>314</v>
       </c>
@@ -3404,6 +3489,12 @@
       <c r="L36" s="21"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B37" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C37" s="93" t="s">
+        <v>369</v>
+      </c>
       <c r="G37" s="21" t="s">
         <v>315</v>
       </c>
@@ -3414,6 +3505,12 @@
       <c r="L37" s="21"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B38" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>371</v>
+      </c>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21" t="s">
@@ -3424,6 +3521,9 @@
       <c r="L38" s="21"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B39" s="8" t="s">
+        <v>372</v>
+      </c>
       <c r="G39" s="21" t="s">
         <v>316</v>
       </c>
@@ -3436,6 +3536,9 @@
       <c r="L39" s="21"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B40" s="8" t="s">
+        <v>373</v>
+      </c>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21" t="s">
@@ -3446,6 +3549,15 @@
       <c r="L40" s="21"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B41" s="8">
+        <v>26</v>
+      </c>
+      <c r="C41" s="8">
+        <v>6</v>
+      </c>
+      <c r="D41" s="8">
+        <v>52</v>
+      </c>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
@@ -3454,6 +3566,15 @@
       <c r="L41" s="21"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B42" s="8">
+        <v>52</v>
+      </c>
+      <c r="C42" s="8">
+        <v>26</v>
+      </c>
+      <c r="D42" s="8">
+        <v>12</v>
+      </c>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
       <c r="I42" s="89" t="s">
@@ -3480,6 +3601,9 @@
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B44" s="8">
+        <v>12</v>
+      </c>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="89">
@@ -3489,6 +3613,11 @@
       <c r="K44" s="21"/>
       <c r="L44" s="89">
         <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B45" s="8">
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.35">
@@ -3607,7 +3736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -3815,7 +3944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -4019,7 +4148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -4340,7 +4469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -4850,7 +4979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -5227,7 +5356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -5651,7 +5780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -6018,7 +6147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
